--- a/Proyectos/00-000_COSMOBOLITA_SUM/01_Hojas de calculo/Tubos.xlsx
+++ b/Proyectos/00-000_COSMOBOLITA_SUM/01_Hojas de calculo/Tubos.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Sigma\Proyectos\00-000_COSMOBOLITA_SUM\01_Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9023654-C775-480E-8C6E-4B7D295F3C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6066DB34-DF6F-4FB4-9812-71E0A9DC78AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="b" localSheetId="0">'Hoja1 (2)'!$E$7</definedName>
-    <definedName name="b">Hoja1!$E$7</definedName>
-    <definedName name="E">Hoja1!$J$1</definedName>
-    <definedName name="fy" localSheetId="0">'Hoja1 (2)'!$I$1</definedName>
-    <definedName name="fy">Hoja1!$E$10</definedName>
-    <definedName name="h" localSheetId="0">'Hoja1 (2)'!$E$6</definedName>
-    <definedName name="h">Hoja1!$E$6</definedName>
-    <definedName name="t" localSheetId="0">'Hoja1 (2)'!$B$8</definedName>
-    <definedName name="t">Hoja1!$B$8</definedName>
+    <definedName name="b">Hoja1!$E$4</definedName>
+    <definedName name="E">Hoja1!$E$13</definedName>
+    <definedName name="fy">Hoja1!$B$13</definedName>
+    <definedName name="h">Hoja1!$E$3</definedName>
+    <definedName name="t">Hoja1!$B$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,15 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Cargas</t>
   </si>
   <si>
     <t>Ag</t>
-  </si>
-  <si>
-    <t>cm2</t>
   </si>
   <si>
     <t>Ix</t>
@@ -64,9 +56,6 @@
   </si>
   <si>
     <t>rx</t>
-  </si>
-  <si>
-    <t>A0</t>
   </si>
   <si>
     <t>Yy</t>
@@ -84,9 +73,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>Perfil</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -102,13 +88,7 @@
     <t>b</t>
   </si>
   <si>
-    <t>Verificacion</t>
-  </si>
-  <si>
     <t>Esbelteces locales</t>
-  </si>
-  <si>
-    <t>Lambdaw=h/t</t>
   </si>
   <si>
     <t>Fy</t>
@@ -117,91 +97,22 @@
     <t>Alma</t>
   </si>
   <si>
-    <t>Lambdap</t>
-  </si>
-  <si>
     <t>Ala</t>
-  </si>
-  <si>
-    <t>lamdaf</t>
-  </si>
-  <si>
-    <t>lambdap</t>
-  </si>
-  <si>
-    <t>Seccion compacta</t>
   </si>
   <si>
     <t>ELU Plastificacion</t>
   </si>
   <si>
-    <t>Mpx</t>
-  </si>
-  <si>
-    <t>1,5Myx</t>
-  </si>
-  <si>
-    <t>Mnx</t>
-  </si>
-  <si>
-    <t>ELU PL</t>
-  </si>
-  <si>
-    <t>Lp</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>Mrx</t>
-  </si>
-  <si>
-    <t>Lr</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>Mn</t>
-  </si>
-  <si>
-    <t>Cb</t>
-  </si>
-  <si>
     <t>Resistencia de Diseño</t>
-  </si>
-  <si>
-    <t>phi</t>
-  </si>
-  <si>
-    <t>Mdx</t>
   </si>
   <si>
     <t>Sentido X</t>
   </si>
   <si>
     <t>Sentido Y</t>
-  </si>
-  <si>
-    <t>Seccion no compacta</t>
-  </si>
-  <si>
-    <t>No aplicable</t>
-  </si>
-  <si>
-    <t>Mpy</t>
-  </si>
-  <si>
-    <t>Mry</t>
-  </si>
-  <si>
-    <t>lambdar</t>
-  </si>
-  <si>
-    <t>Mdy</t>
-  </si>
-  <si>
-    <t>Verific Flexion</t>
   </si>
   <si>
     <t>Mux</t>
@@ -219,9 +130,6 @@
     <t>ELU Pandeo Lateral</t>
   </si>
   <si>
-    <t>Estado no aplicable para el eje de menor inercia.</t>
-  </si>
-  <si>
     <t>ELU Pandeo Local</t>
   </si>
   <si>
@@ -233,21 +141,37 @@
   <si>
     <t>Verfica</t>
   </si>
+  <si>
+    <t>Perfil RHS 80x40x2 mm</t>
+  </si>
+  <si>
+    <t>TUBO ESTRUCTURAL A FLEXIÓN</t>
+  </si>
+  <si>
+    <t>Estado no aplicable por ser no compacto.</t>
+  </si>
+  <si>
+    <t>Sección compacta</t>
+  </si>
+  <si>
+    <t>Sección no compacta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
-    <numFmt numFmtId="165" formatCode="0\ &quot;cm&quot;"/>
-    <numFmt numFmtId="166" formatCode="0\ &quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\ &quot;cm²&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\ &quot;cm4&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00\ &quot;cm³&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\ &quot;cm&quot;"/>
-    <numFmt numFmtId="171" formatCode="0.00\ &quot;kNm&quot;"/>
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="0\ &quot;cm&quot;"/>
+    <numFmt numFmtId="165" formatCode="0\ &quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.00\ &quot;cm²&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\ &quot;cm4&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\ &quot;cm³&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00\ &quot;cm&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\ &quot;kNm&quot;"/>
+    <numFmt numFmtId="171" formatCode="0\ &quot;MPa&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,16 +187,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -280,20 +224,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,26 +331,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -354,65 +406,16 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361758</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>171385</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CF8CBB-7201-4D9C-A01E-20974FEDCFC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="47625" y="9363075"/>
-          <a:ext cx="1533333" cy="523810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="734945" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -454,6 +457,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -524,7 +528,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -591,12 +595,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="702565" cy="183127"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -638,6 +642,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -708,7 +713,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -775,12 +780,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1008418" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -822,6 +827,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -931,7 +937,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -998,12 +1004,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1008418" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -1045,6 +1051,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1154,7 +1161,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -1221,12 +1228,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1273041" cy="186077"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -1268,6 +1275,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1400,7 +1408,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -1460,12 +1468,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1295868" cy="186077"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -1643,7 +1651,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -1706,12 +1714,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="424539" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -1753,6 +1761,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1798,7 +1807,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -1858,12 +1867,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1100814" cy="205127"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -2035,7 +2044,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -2098,8 +2107,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1677190" cy="410369"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2117,7 +2126,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="7148512"/>
+              <a:off x="0" y="7081837"/>
               <a:ext cx="1677190" cy="410369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2145,6 +2154,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2366,7 +2376,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="7148512"/>
+              <a:off x="0" y="7081837"/>
               <a:ext cx="1677190" cy="410369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2394,6 +2404,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-AR" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2412,12 +2423,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1705723" cy="390876"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -2459,6 +2470,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2666,7 +2678,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -2726,12 +2738,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="321691" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -2773,6 +2785,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2818,7 +2831,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -2878,12 +2891,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2466124" cy="383438"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -2925,6 +2938,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3243,7 +3257,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -3303,12 +3317,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="322589" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -3350,6 +3364,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3395,7 +3410,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -3455,12 +3470,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="424539" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -3502,6 +3517,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3547,7 +3563,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -3607,12 +3623,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="342209" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -3654,6 +3670,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3700,7 +3717,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -3767,12 +3784,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1073499" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -3814,6 +3831,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3922,7 +3940,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -3995,12 +4013,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="734945" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -4042,6 +4060,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4112,7 +4131,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -4179,12 +4198,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="702565" cy="183127"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -4226,6 +4245,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4296,7 +4316,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -4363,12 +4383,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1008418" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -4410,6 +4430,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4519,7 +4540,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -4586,12 +4607,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1008418" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -4633,6 +4654,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4742,7 +4764,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -4809,12 +4831,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="921984" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -4856,6 +4878,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4965,7 +4988,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -5032,12 +5055,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1312282" cy="186077"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -5079,6 +5102,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5211,7 +5235,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -5271,12 +5295,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1100814" cy="205127"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -5448,7 +5472,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -5511,12 +5535,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2520755" cy="384016"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -5558,6 +5582,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5880,7 +5905,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -5992,12 +6017,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="428643" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
@@ -6039,6 +6064,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6084,7 +6110,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
@@ -6144,12 +6170,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="342209" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
@@ -6191,6 +6217,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6237,7 +6264,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
@@ -6304,12 +6331,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1081706" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CuadroTexto 28">
@@ -6351,6 +6378,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6459,7 +6487,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CuadroTexto 28">
@@ -6532,12 +6560,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1153586" cy="373179"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CuadroTexto 29">
@@ -6579,6 +6607,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6629,7 +6658,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6672,7 +6701,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6685,7 +6714,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6703,19 +6732,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="es-AR" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑥</m:t>
+                              <m:t>𝑛𝑥</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -6735,7 +6752,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6750,7 +6767,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6763,7 +6780,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6777,23 +6794,11 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑢</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="es-AR" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑦</m:t>
+                              <m:t>𝑢𝑦</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -6807,7 +6812,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6820,7 +6825,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6834,7 +6839,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6850,7 +6855,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6863,7 +6868,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6877,23 +6882,11 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="es-AR" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑦</m:t>
+                              <m:t>𝑛𝑦</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -6919,7 +6912,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CuadroTexto 29">
@@ -7426,499 +7419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A67F9F-9B58-4BFF-92F0-2A408BB9F939}">
-  <dimension ref="A1:K51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2">
-        <v>1.03</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <f>B6-4*B8</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <f>B7-4*B8</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>40.61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>13.84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>10.15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>6.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>12.72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>7.87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>2.84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>66.144999999999996</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f>E6/B8</f>
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22">
-        <f>1565/SQRT(fy)</f>
-        <v>102.0893434328637</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22">
-        <f>b/t</f>
-        <v>16</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22">
-        <f>1565/SQRT(fy)</f>
-        <v>102.0893434328637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <f>E7/B8</f>
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <f>470/SQRT(fy)</f>
-        <v>30.659419433511783</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25">
-        <f>h/t</f>
-        <v>36</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25">
-        <f>470/SQRT(fy)</f>
-        <v>30.659419433511783</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <f>580/SQRT(fy)</f>
-        <v>37.83502823709965</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <f>fy*B14/1000</f>
-        <v>2.9892000000000003</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <f>1.5*fy*B13/1000</f>
-        <v>3.5778750000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <f>MIN(B30:B31)</f>
-        <v>2.9892000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <f>24*E15*SQRT(E16*B11)/B30</f>
-        <v>175.14406935333508</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35">
-        <f>fy*E14/1000</f>
-        <v>1.84945</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <f>B31/1.5</f>
-        <v>2.3852500000000001</v>
-      </c>
-      <c r="G36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36">
-        <f>fy*E13/1000</f>
-        <v>1.6262000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <f>360*E15*SQRT(E16*B11)/B36</f>
-        <v>3292.3633923759944</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>1.1359999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <f>B39*(B30-(B30-B36)*(E2-B35)/(B37-B35))</f>
-        <v>3.3682509212694995</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41">
-        <f>H35-(H35-H36)*(H25-K25)/(K26-K25)</f>
-        <v>1.6832920273312082</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44">
-        <f>MIN(B32,B41)</f>
-        <v>2.9892000000000003</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44">
-        <f>H41</f>
-        <v>1.6832920273312082</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>0.85</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <f>B45*B44</f>
-        <v>2.5408200000000001</v>
-      </c>
-      <c r="G46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46">
-        <f>H45*H44</f>
-        <v>1.4307982232315268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51">
-        <f>B2/B46+B3/H46</f>
-        <v>0.8107490699005846</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
-      <formula>$B$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
-      <formula>$B$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J87"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7929,485 +7434,604 @@
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <f>B3-4*B5</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <f>B4-4*B5</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>40.61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10.15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>12.72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2.84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>34.4</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="14">
+        <v>235</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="14">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1">
-        <v>200000</v>
-      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8">
         <v>1.03</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3">
-        <f>B6-4*B8</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3">
-        <f>B7-4*B8</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5">
-        <v>40.61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5">
-        <v>13.84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6">
-        <v>10.15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6">
-        <v>6.92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6">
-        <v>12.72</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6">
-        <v>7.87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7">
-        <v>2.84</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="18" spans="1:7" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f>E6/B8</f>
+      <c r="A21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>E3/B5</f>
         <v>36</v>
       </c>
-      <c r="C21" s="10" t="str">
-        <f>IF(B21&lt;F21,"&lt;","&gt;")</f>
+      <c r="C23" s="10" t="str">
+        <f>IF(B23&lt;F23,"&lt;","&gt;")</f>
         <v>&lt;</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F23" s="11">
         <f>2.24*SQRT(E/fy)</f>
         <v>65.347516191056769</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="10"/>
-      <c r="F22" s="12"/>
+    <row r="24" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="10"/>
+      <c r="F24" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="F23" s="12"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="F25" s="12"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f>E7/B8</f>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>E4/B5</f>
         <v>16</v>
       </c>
-      <c r="C24" s="10" t="str">
-        <f>IF(B24&lt;F24,"&lt;","&gt;")</f>
+      <c r="C26" s="10" t="str">
+        <f>IF(B26&lt;F26,"&lt;","&gt;")</f>
         <v>&lt;</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F26" s="11">
         <f>1.12*SQRT(E/fy)</f>
         <v>32.673758095528385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="1"/>
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="C29" s="8">
-        <f>fy*B13/1000</f>
+    <row r="29" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="E31" s="8">
+        <f>fy*B10/1000</f>
         <v>2.9892000000000003</v>
       </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="8">
-        <f>1.5*fy*B12/1000</f>
-        <v>3.5778750000000001</v>
-      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="8">
-        <f>MIN(C29,C31)</f>
+      <c r="E33" s="8">
+        <f>1.5*fy*B9/1000</f>
+        <v>3.5778750000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="8">
+        <f>MIN(E31,E33)</f>
         <v>2.9892000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="8"/>
+    <row r="36" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="C36" s="2">
-        <v>500</v>
-      </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="C38" s="8">
-        <f>C31/1.5</f>
-        <v>2.3852500000000001</v>
+      <c r="E38" s="25">
+        <v>500</v>
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="2">
-        <f>1.3*E14*E*SQRT(B15*B10)/(C29*10000)</f>
+      <c r="A40" s="1"/>
+      <c r="E40" s="8">
+        <f>E33/1.5</f>
+        <v>2.3852500000000001</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="25">
+        <f>1.3*E11*E*SQRT(B12*B7)/(E31*10000)</f>
         <v>189.73940846611302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D42" s="2">
-        <f>1.8*E14*E*SQRT(B15*B10)/(C38*1000)</f>
-        <v>3292.363392375994</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>1</v>
+      <c r="E44" s="25">
+        <f>1.8*E11*E*SQRT(B12*B7)/(E40*1000)</f>
+        <v>3292.363392375994</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E46" s="8">
-        <f>B44*(C29-(C29-C38)*(E2-D40)/(D42-D40))</f>
-        <v>2.967736914365958</v>
+      <c r="E46">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>41</v>
+      <c r="E48" s="26">
+        <f>E46*(E31-(E31-E40)*(E16-E42)/(E44-E42))</f>
+        <v>2.967736914365958</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="8">
-        <f>MIN(C33,E46)</f>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="8">
+        <f>MIN(E35,E48)</f>
         <v>2.967736914365958</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51">
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54">
         <v>0.85</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="8">
-        <f>B51*C49</f>
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="8">
+        <f>E54*E52</f>
         <v>2.5225763772110641</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <f>b/t</f>
-        <v>16</v>
-      </c>
-      <c r="C58" s="10" t="str">
-        <f>IF(B58&lt;F58,"&lt;","&gt;")</f>
-        <v>&lt;</v>
-      </c>
-      <c r="F58" s="11">
-        <f>2.24*SQRT(E/fy)</f>
-        <v>65.347516191056769</v>
-      </c>
+      <c r="A58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="10"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="24"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="F60" s="12"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61">
+        <f>b/t</f>
+        <v>16</v>
+      </c>
+      <c r="C61" s="10" t="str">
+        <f>IF(B61&lt;F61,"&lt;","&gt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="F61" s="11">
+        <f>2.24*SQRT(E/fy)</f>
+        <v>65.347516191056769</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="10"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64">
         <f>h/t</f>
         <v>36</v>
       </c>
-      <c r="C61" s="10" t="str">
-        <f>IF(B61&lt;F61,"&lt;","&gt;")</f>
+      <c r="C64" s="10" t="str">
+        <f>IF(B64&lt;F64,"&lt;","&gt;")</f>
         <v>&gt;</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F64" s="11">
         <f>1.12*SQRT(E/fy)</f>
         <v>32.673758095528385</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F64" s="11">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="11">
         <f>1.4*SQRT(E/fy)</f>
         <v>40.84219761941047</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>46</v>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="24"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>58</v>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>59</v>
-      </c>
+    <row r="73" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="8">
-        <f>fy*E13/1000</f>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="8">
+        <f>fy*E10/1000</f>
         <v>1.84945</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C74" s="8">
-        <f>fy*E12/1000</f>
+    <row r="76" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="8">
+        <f>fy*E9/1000</f>
         <v>1.6262000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="8">
-        <f>C72-(C72-C74)*(B61-F61)/(F64-F61)</f>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="8">
+        <f>E75-(E75-E77)*(B64-F64)/(F67-F64)</f>
         <v>1.7585411424388717</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="8"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C79" s="8">
-        <f>E76</f>
+    <row r="81" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="24"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="8">
+        <f>E79</f>
         <v>1.7585411424388717</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B81">
+    <row r="84" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E85">
         <v>0.85</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="8">
-        <f>B81*C79</f>
+    <row r="86" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="8">
+        <f>E85*E83</f>
         <v>1.4947599710730408</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>60</v>
-      </c>
+    <row r="88" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="24"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9" t="e">
-        <f>B2/C53+B3/H52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E87" s="10">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="9">
+        <f>B16/E56+B17/E87</f>
+        <v>0.79633487619628651</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="10">
         <v>1</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>62</v>
+      <c r="F91" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C54:C57 C64:C71 C73 C75:C77 C84">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
-      <formula>$B$2</formula>
+  <mergeCells count="15">
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
-      <formula>$B$3</formula>
+  <conditionalFormatting sqref="C57 C67:C70 C76 C78:C81 C88 C60 C72:C73">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+      <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>1</formula>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThan">
+      <formula>$B$17</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
